--- a/config_Release/sgxxl_tower_climbing_config.xlsx
+++ b/config_Release/sgxxl_tower_climbing_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="395">
   <si>
     <t>line|行号</t>
   </si>
@@ -344,16 +344,10 @@
   </si>
   <si>
     <t>单局消除9个及以上7</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单局消除9个及以上BAR</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上BAR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -834,21 +828,6 @@
     <t>"x18000",</t>
   </si>
   <si>
-    <t>累计消除30个苹果，30个铃铛，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个7</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个铃铛，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，30个西瓜，15个BAR</t>
-  </si>
-  <si>
-    <t>累计消除30个苹果，15个7，15个BAR</t>
-  </si>
-  <si>
     <t>30,30,15,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -865,33 +844,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>累计消除80个苹果，80个铃铛，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个铃铛，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个苹果，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，40个7，40个BAR</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛，80个西瓜，40个7</t>
-  </si>
-  <si>
-    <t>累计消除80个西瓜，40个7，40个BAR</t>
-  </si>
-  <si>
     <t>80,80,40,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -978,276 +930,9 @@
     <t>800,400,400,</t>
   </si>
   <si>
-    <t>累计消除800个苹果，800个铃铛，400个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个铃铛，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个苹果，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个7</t>
-  </si>
-  <si>
-    <t>累计消除100个铃铛，100个西瓜，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除100个西瓜，50个7，50个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个铃铛，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个苹果，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个7</t>
-  </si>
-  <si>
-    <t>累计消除120个铃铛，120个西瓜，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除120个西瓜，60个7，60个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个铃铛，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个苹果，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个7</t>
-  </si>
-  <si>
-    <t>累计消除150个铃铛，150个西瓜，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除150个西瓜，80个7，80个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个铃铛，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个苹果，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个7</t>
-  </si>
-  <si>
-    <t>累计消除200个铃铛，200个西瓜，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除200个西瓜，100个7，100个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个铃铛，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个苹果，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个7</t>
-  </si>
-  <si>
-    <t>累计消除300个铃铛，300个西瓜，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除300个西瓜，150个7，150个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个铃铛，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个苹果，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个7</t>
-  </si>
-  <si>
-    <t>累计消除400个铃铛，400个西瓜，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除400个西瓜，200个7，200个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个铃铛，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个苹果，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个7</t>
-  </si>
-  <si>
-    <t>累计消除500个铃铛，500个西瓜，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除500个西瓜，250个7，250个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个铃铛，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个苹果，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个7</t>
-  </si>
-  <si>
-    <t>累计消除600个铃铛，600个西瓜，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除600个西瓜，300个7，300个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个铃铛，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个苹果，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，400个7，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个7</t>
-  </si>
-  <si>
-    <t>累计消除800个铃铛，800个西瓜，400个BAR</t>
-  </si>
-  <si>
-    <t>累计消除800个西瓜，400个7，400个BAR</t>
-  </si>
-  <si>
     <t>出现一次幸运时刻</t>
   </si>
   <si>
-    <t>单局消除6个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上西瓜</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上7</t>
-  </si>
-  <si>
-    <t>单局消除6个及以上BAR</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上苹果</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上铃铛</t>
-  </si>
-  <si>
-    <t>单局消除9个及以上西瓜</t>
-  </si>
-  <si>
     <t>bet_limit|档次限制</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1310,6 +995,354 @@
   <si>
     <t>"x300",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局消除6个及以上独眼怪</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上独眼怪</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上绿皮怪</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，30个小黄怪，30个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，80个小黄怪，80个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，100个小黄怪，100个绿皮怪</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上小黄怪</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，120个小黄怪，120个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，150个小黄怪，150个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，200个小黄怪，200个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，300个小黄怪，300个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，400个小黄怪，400个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，500个小黄怪，500个绿皮怪</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上小黄怪</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，600个小黄怪，600个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，800个小黄怪，800个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，30个小黄怪，15个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，30个绿皮怪，15个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，80个小黄怪，40个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，80个绿皮怪，40个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除80个小黄怪，80个绿皮怪，40个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，100个小黄怪，50个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，100个绿皮怪，50个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除100个小黄怪，100个绿皮怪，50个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，120个小黄怪，60个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，120个绿皮怪，60个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除120个小黄怪，120个绿皮怪，60个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，150个小黄怪，80个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，150个绿皮怪，80个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除150个小黄怪，150个绿皮怪，80个科学蟹</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，200个小黄怪，100个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，200个绿皮怪，100个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除200个小黄怪，200个绿皮怪，100个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，300个小黄怪，150个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，300个绿皮怪，150个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除300个小黄怪，300个绿皮怪，150个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，400个小黄怪，200个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，400个绿皮怪，200个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除400个小黄怪，400个绿皮怪，200个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，500个小黄怪，250个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，500个绿皮怪，250个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除500个小黄怪，500个绿皮怪，250个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，600个小黄怪，300个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，600个绿皮怪，300个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除600个小黄怪，600个绿皮怪，300个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，800个小黄怪，400个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，800个绿皮怪，400个科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除800个小黄怪，800个绿皮怪，400个科学蟹</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上科学蟹</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，30个小黄怪，15个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，30个绿皮怪，15个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除30个独眼怪，15个科学蟹，15个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，80个小黄怪，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，80个绿皮怪，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个独眼怪，40个科学蟹，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个小黄怪，40个科学蟹，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个小黄怪，80个绿皮怪，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除80个绿皮怪，40个科学蟹，40个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，100个小黄怪，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，100个绿皮怪，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个独眼怪，50个科学蟹，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个小黄怪，50个科学蟹，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个小黄怪，100个绿皮怪，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除100个绿皮怪，50个科学蟹，50个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，120个小黄怪，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，120个绿皮怪，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个独眼怪，60个科学蟹，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个小黄怪，60个科学蟹，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个小黄怪，120个绿皮怪，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除120个绿皮怪，60个科学蟹，60个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，150个小黄怪，80个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，150个绿皮怪，80个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个独眼怪，80个科学蟹，80个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个小黄怪，80个科学蟹，80个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个小黄怪，150个绿皮怪，80个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除150个绿皮怪，80个科学蟹，80个小恶魔</t>
+  </si>
+  <si>
+    <t>单局消除6个及以上小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，200个小黄怪，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，200个绿皮怪，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个独眼怪，100个科学蟹，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个小黄怪，100个科学蟹，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个小黄怪，200个绿皮怪，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除200个绿皮怪，100个科学蟹，100个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，300个小黄怪，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，300个绿皮怪，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个独眼怪，150个科学蟹，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个小黄怪，150个科学蟹，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个小黄怪，300个绿皮怪，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除300个绿皮怪，150个科学蟹，150个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，400个小黄怪，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，400个绿皮怪，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个独眼怪，200个科学蟹，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个小黄怪，200个科学蟹，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个小黄怪，400个绿皮怪，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除400个绿皮怪，200个科学蟹，200个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，500个小黄怪，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，500个绿皮怪，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个独眼怪，250个科学蟹，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个小黄怪，250个科学蟹，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个小黄怪，500个绿皮怪，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除500个绿皮怪，250个科学蟹，250个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，600个小黄怪，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，600个绿皮怪，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个独眼怪，300个科学蟹，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个小黄怪，300个科学蟹，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个小黄怪，600个绿皮怪，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除600个绿皮怪，300个科学蟹，300个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，800个小黄怪，400个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，800个绿皮怪，400个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个独眼怪，400个科学蟹，400个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个小黄怪，400个科学蟹，400个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个小黄怪，800个绿皮怪，400个小恶魔</t>
+  </si>
+  <si>
+    <t>累计消除800个绿皮怪，400个科学蟹，400个小恶魔</t>
+  </si>
+  <si>
+    <t>单局消除9个及以上小恶魔</t>
   </si>
 </sst>
 </file>
@@ -1818,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="C109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1849,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1881,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1913,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1922,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
@@ -1945,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1954,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
@@ -1977,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1986,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J5" s="4">
         <v>4</v>
@@ -2009,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J6" s="4">
         <v>5</v>
@@ -2041,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -2050,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J7" s="4">
         <v>6</v>
@@ -2067,22 +2100,22 @@
         <v>17</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="11">
         <v>10000</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J8" s="4">
         <v>7</v>
@@ -2099,22 +2132,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="11">
         <v>10000</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="J9" s="4">
         <v>8</v>
@@ -2131,22 +2164,22 @@
         <v>24</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="11">
         <v>10000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="J10" s="4">
         <v>9</v>
@@ -2163,22 +2196,22 @@
         <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="11">
         <v>10000</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J11" s="4">
         <v>10</v>
@@ -2195,22 +2228,22 @@
         <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="11">
         <v>10000</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>244</v>
+        <v>334</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="J12" s="4">
         <v>11</v>
@@ -2227,22 +2260,22 @@
         <v>31</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13" s="11">
         <v>10000</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="J13" s="4">
         <v>12</v>
@@ -2259,22 +2292,22 @@
         <v>34</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="11">
         <v>10000</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="J14" s="4">
         <v>13</v>
@@ -2291,22 +2324,22 @@
         <v>36</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="11">
         <v>10000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="J15" s="4">
         <v>14</v>
@@ -2323,22 +2356,22 @@
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="11">
         <v>10000</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J16" s="4">
         <v>15</v>
@@ -2355,22 +2388,22 @@
         <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="11">
         <v>10000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="J17" s="4">
         <v>16</v>
@@ -2387,22 +2420,22 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="11">
         <v>30000</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" s="4">
         <v>17</v>
@@ -2419,22 +2452,22 @@
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="11">
         <v>30000</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J19" s="4">
         <v>18</v>
@@ -2451,22 +2484,22 @@
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="11">
         <v>30000</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J20" s="4">
         <v>19</v>
@@ -2483,22 +2516,22 @@
         <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="11">
         <v>30000</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J21" s="4">
         <v>20</v>
@@ -2515,22 +2548,22 @@
         <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E22" s="11">
         <v>30000</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J22" s="4">
         <v>21</v>
@@ -2547,22 +2580,22 @@
         <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="11">
         <v>30000</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J23" s="4">
         <v>22</v>
@@ -2579,22 +2612,22 @@
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="11">
         <v>30000</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J24" s="4">
         <v>23</v>
@@ -2611,22 +2644,22 @@
         <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="11">
         <v>30000</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J25" s="4">
         <v>24</v>
@@ -2643,22 +2676,22 @@
         <v>37</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="11">
         <v>30000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J26" s="4">
         <v>25</v>
@@ -2675,22 +2708,22 @@
         <v>33</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" s="11">
         <v>30000</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J27" s="4">
         <v>26</v>
@@ -2707,19 +2740,19 @@
         <v>43</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11">
         <v>30000</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I28" s="24" t="s">
         <v>13</v>
@@ -2739,19 +2772,19 @@
         <v>62</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E29" s="11">
         <v>30000</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I29" s="24" t="s">
         <v>13</v>
@@ -2771,22 +2804,22 @@
         <v>16</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E30" s="11">
         <v>60000</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J30" s="4">
         <v>29</v>
@@ -2803,22 +2836,22 @@
         <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="11">
         <v>60000</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
@@ -2835,22 +2868,22 @@
         <v>23</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" s="11">
         <v>60000</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J32" s="4">
         <v>31</v>
@@ -2867,22 +2900,22 @@
         <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E33" s="11">
         <v>60000</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J33" s="4">
         <v>32</v>
@@ -2899,22 +2932,22 @@
         <v>27</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" s="11">
         <v>60000</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J34" s="4">
         <v>33</v>
@@ -2931,22 +2964,22 @@
         <v>29</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="11">
         <v>60000</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J35" s="4">
         <v>34</v>
@@ -2963,22 +2996,22 @@
         <v>32</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="11">
         <v>60000</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J36" s="4">
         <v>35</v>
@@ -2995,22 +3028,22 @@
         <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="11">
         <v>60000</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J37" s="4">
         <v>36</v>
@@ -3027,22 +3060,22 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" s="11">
         <v>60000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J38" s="4">
         <v>37</v>
@@ -3059,22 +3092,22 @@
         <v>33</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E39" s="11">
         <v>60000</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="J39" s="4">
         <v>38</v>
@@ -3091,22 +3124,22 @@
         <v>41</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" s="11">
         <v>60000</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J40" s="20">
         <v>39</v>
@@ -3123,22 +3156,22 @@
         <v>44</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="11">
         <v>60000</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J41" s="20">
         <v>40</v>
@@ -3155,22 +3188,22 @@
         <v>16</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E42" s="11">
         <v>120000</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" s="4">
         <v>41</v>
@@ -3187,22 +3220,22 @@
         <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E43" s="11">
         <v>120000</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J43" s="4">
         <v>42</v>
@@ -3219,22 +3252,22 @@
         <v>23</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E44" s="11">
         <v>120000</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J44" s="4">
         <v>43</v>
@@ -3251,22 +3284,22 @@
         <v>25</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E45" s="11">
         <v>120000</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J45" s="4">
         <v>44</v>
@@ -3283,22 +3316,22 @@
         <v>27</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E46" s="11">
         <v>120000</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J46" s="4">
         <v>45</v>
@@ -3315,22 +3348,22 @@
         <v>29</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E47" s="11">
         <v>120000</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J47" s="4">
         <v>46</v>
@@ -3347,22 +3380,22 @@
         <v>32</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" s="11">
         <v>120000</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J48" s="4">
         <v>47</v>
@@ -3379,22 +3412,22 @@
         <v>35</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="11">
         <v>120000</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J49" s="4">
         <v>48</v>
@@ -3411,22 +3444,22 @@
         <v>37</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E50" s="11">
         <v>120000</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="J50" s="4">
         <v>49</v>
@@ -3443,22 +3476,22 @@
         <v>33</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" s="11">
         <v>120000</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J51" s="4">
         <v>50</v>
@@ -3475,19 +3508,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E52" s="11">
         <v>120000</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="G52" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I52" s="24" t="s">
         <v>13</v>
@@ -3507,19 +3540,19 @@
         <v>46</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E53" s="11">
         <v>120000</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="G53" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I53" s="24" t="s">
         <v>13</v>
@@ -3539,19 +3572,19 @@
         <v>16</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E54" s="11">
         <v>240000</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>42</v>
@@ -3571,22 +3604,22 @@
         <v>21</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E55" s="11">
         <v>240000</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J55" s="4">
         <v>54</v>
@@ -3603,22 +3636,22 @@
         <v>23</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E56" s="11">
         <v>240000</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J56" s="4">
         <v>55</v>
@@ -3635,22 +3668,22 @@
         <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" s="11">
         <v>240000</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J57" s="4">
         <v>56</v>
@@ -3667,22 +3700,22 @@
         <v>27</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E58" s="11">
         <v>240000</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J58" s="4">
         <v>57</v>
@@ -3699,22 +3732,22 @@
         <v>29</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="11">
         <v>240000</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J59" s="4">
         <v>58</v>
@@ -3731,22 +3764,22 @@
         <v>32</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E60" s="11">
         <v>240000</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J60" s="4">
         <v>59</v>
@@ -3763,22 +3796,22 @@
         <v>35</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E61" s="11">
         <v>240000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J61" s="4">
         <v>60</v>
@@ -3795,22 +3828,22 @@
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E62" s="11">
         <v>240000</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J62" s="4">
         <v>61</v>
@@ -3827,22 +3860,22 @@
         <v>33</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E63" s="11">
         <v>240000</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J63" s="4">
         <v>62</v>
@@ -3859,22 +3892,22 @@
         <v>68</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E64" s="11">
         <v>240000</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J64" s="4">
         <v>63</v>
@@ -3891,22 +3924,22 @@
         <v>41</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E65" s="11">
         <v>240000</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J65" s="4">
         <v>64</v>
@@ -3923,7 +3956,7 @@
         <v>69</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E66" s="11">
         <v>240000</v>
@@ -3935,7 +3968,7 @@
         <v>10</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I66" s="26" t="s">
         <v>14</v>
@@ -3955,22 +3988,22 @@
         <v>16</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E67" s="11">
         <v>480000</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J67" s="4">
         <v>66</v>
@@ -3987,22 +4020,22 @@
         <v>21</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="11">
         <v>480000</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J68" s="4">
         <v>67</v>
@@ -4019,22 +4052,22 @@
         <v>23</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E69" s="11">
         <v>480000</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J69" s="4">
         <v>68</v>
@@ -4051,22 +4084,22 @@
         <v>25</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E70" s="11">
         <v>480000</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J70" s="4">
         <v>69</v>
@@ -4083,22 +4116,22 @@
         <v>27</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E71" s="11">
         <v>480000</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J71" s="4">
         <v>70</v>
@@ -4115,22 +4148,22 @@
         <v>29</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E72" s="11">
         <v>480000</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J72" s="4">
         <v>71</v>
@@ -4147,22 +4180,22 @@
         <v>32</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E73" s="11">
         <v>480000</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J73" s="4">
         <v>72</v>
@@ -4179,22 +4212,22 @@
         <v>35</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74" s="11">
         <v>480000</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J74" s="4">
         <v>73</v>
@@ -4211,22 +4244,22 @@
         <v>37</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" s="11">
         <v>480000</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J75" s="4">
         <v>74</v>
@@ -4243,22 +4276,22 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" s="11">
         <v>480000</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J76" s="4">
         <v>75</v>
@@ -4275,22 +4308,22 @@
         <v>41</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77" s="11">
         <v>480000</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J77" s="4">
         <v>76</v>
@@ -4307,22 +4340,22 @@
         <v>44</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E78" s="11">
         <v>480000</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J78" s="4">
         <v>77</v>
@@ -4339,7 +4372,7 @@
         <v>69</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E79" s="11">
         <v>480000</v>
@@ -4351,10 +4384,10 @@
         <v>10</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J79" s="20">
         <v>78</v>
@@ -4371,22 +4404,22 @@
         <v>16</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E80" s="11">
         <v>960000</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J80" s="4">
         <v>79</v>
@@ -4403,22 +4436,22 @@
         <v>21</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E81" s="11">
         <v>960000</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J81" s="4">
         <v>80</v>
@@ -4435,22 +4468,22 @@
         <v>23</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" s="11">
         <v>960000</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J82" s="4">
         <v>81</v>
@@ -4467,22 +4500,22 @@
         <v>25</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E83" s="11">
         <v>960000</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J83" s="4">
         <v>82</v>
@@ -4499,22 +4532,22 @@
         <v>27</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E84" s="11">
         <v>960000</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J84" s="4">
         <v>83</v>
@@ -4531,22 +4564,22 @@
         <v>29</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E85" s="11">
         <v>960000</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J85" s="4">
         <v>84</v>
@@ -4563,22 +4596,22 @@
         <v>32</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E86" s="11">
         <v>960000</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J86" s="4">
         <v>85</v>
@@ -4595,22 +4628,22 @@
         <v>35</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E87" s="11">
         <v>960000</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J87" s="4">
         <v>86</v>
@@ -4627,22 +4660,22 @@
         <v>37</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E88" s="11">
         <v>960000</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J88" s="4">
         <v>87</v>
@@ -4659,22 +4692,22 @@
         <v>33</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E89" s="11">
         <v>960000</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J89" s="4">
         <v>88</v>
@@ -4691,22 +4724,22 @@
         <v>79</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E90" s="11">
         <v>960000</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J90" s="4">
         <v>89</v>
@@ -4723,22 +4756,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" s="11">
         <v>960000</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J91" s="4">
         <v>90</v>
@@ -4755,7 +4788,7 @@
         <v>69</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E92" s="11">
         <v>960000</v>
@@ -4767,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="I92" s="15" t="s">
         <v>14</v>
@@ -4787,22 +4820,22 @@
         <v>16</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E93" s="11">
         <v>1920000</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H93" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J93" s="4">
         <v>92</v>
@@ -4819,22 +4852,22 @@
         <v>21</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E94" s="11">
         <v>1920000</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J94" s="4">
         <v>93</v>
@@ -4851,22 +4884,22 @@
         <v>23</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E95" s="11">
         <v>1920000</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H95" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J95" s="4">
         <v>94</v>
@@ -4883,22 +4916,22 @@
         <v>25</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E96" s="11">
         <v>1920000</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J96" s="4">
         <v>95</v>
@@ -4915,22 +4948,22 @@
         <v>27</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E97" s="11">
         <v>1920000</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="G97" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H97" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J97" s="4">
         <v>96</v>
@@ -4947,22 +4980,22 @@
         <v>29</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E98" s="11">
         <v>1920000</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J98" s="4">
         <v>97</v>
@@ -4979,22 +5012,22 @@
         <v>32</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E99" s="11">
         <v>1920000</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H99" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J99" s="4">
         <v>98</v>
@@ -5011,22 +5044,22 @@
         <v>35</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E100" s="11">
         <v>1920000</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J100" s="4">
         <v>99</v>
@@ -5043,22 +5076,22 @@
         <v>37</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E101" s="11">
         <v>1920000</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J101" s="4">
         <v>100</v>
@@ -5075,22 +5108,22 @@
         <v>33</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E102" s="11">
         <v>1920000</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J102" s="4">
         <v>101</v>
@@ -5107,22 +5140,22 @@
         <v>68</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E103" s="11">
         <v>1920000</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J103" s="4">
         <v>102</v>
@@ -5139,22 +5172,22 @@
         <v>41</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E104" s="11">
         <v>1920000</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J104" s="4">
         <v>103</v>
@@ -5171,19 +5204,19 @@
         <v>69</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E105" s="11">
         <v>1920000</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="I105" s="15" t="s">
         <v>14</v>
@@ -5203,22 +5236,22 @@
         <v>16</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E106" s="11">
         <v>5120000</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J106" s="4">
         <v>105</v>
@@ -5235,22 +5268,22 @@
         <v>21</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E107" s="11">
         <v>5120000</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J107" s="4">
         <v>106</v>
@@ -5267,22 +5300,22 @@
         <v>23</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E108" s="11">
         <v>5120000</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J108" s="4">
         <v>107</v>
@@ -5299,22 +5332,22 @@
         <v>25</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E109" s="11">
         <v>5120000</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J109" s="4">
         <v>108</v>
@@ -5331,22 +5364,22 @@
         <v>27</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E110" s="11">
         <v>5120000</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J110" s="4">
         <v>109</v>
@@ -5363,22 +5396,22 @@
         <v>29</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E111" s="11">
         <v>5120000</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J111" s="4">
         <v>110</v>
@@ -5395,22 +5428,22 @@
         <v>32</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E112" s="11">
         <v>5120000</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J112" s="4">
         <v>111</v>
@@ -5427,22 +5460,22 @@
         <v>35</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E113" s="11">
         <v>5120000</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J113" s="4">
         <v>112</v>
@@ -5459,22 +5492,22 @@
         <v>37</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E114" s="11">
         <v>5120000</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J114" s="4">
         <v>113</v>
@@ -5491,22 +5524,22 @@
         <v>33</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E115" s="11">
         <v>5120000</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="J115" s="4">
         <v>114</v>
@@ -5523,22 +5556,22 @@
         <v>41</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E116" s="11">
         <v>5120000</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J116" s="4">
         <v>115</v>
@@ -5555,22 +5588,22 @@
         <v>44</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E117" s="11">
         <v>5120000</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J117" s="4">
         <v>116</v>
@@ -5587,7 +5620,7 @@
         <v>69</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E118" s="11">
         <v>5120000</v>
@@ -5596,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="I118" s="15" t="s">
         <v>14</v>
@@ -5619,22 +5652,22 @@
         <v>16</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E119" s="11">
         <v>10240000</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J119" s="4">
         <v>118</v>
@@ -5651,22 +5684,22 @@
         <v>21</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E120" s="11">
         <v>10240000</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J120" s="4">
         <v>119</v>
@@ -5683,22 +5716,22 @@
         <v>23</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E121" s="11">
         <v>10240000</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J121" s="4">
         <v>120</v>
@@ -5715,22 +5748,22 @@
         <v>25</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E122" s="11">
         <v>10240000</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J122" s="4">
         <v>121</v>
@@ -5747,22 +5780,22 @@
         <v>27</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E123" s="11">
         <v>10240000</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J123" s="4">
         <v>122</v>
@@ -5779,22 +5812,22 @@
         <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E124" s="11">
         <v>10240000</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="G124" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J124" s="4">
         <v>123</v>
@@ -5811,22 +5844,22 @@
         <v>32</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E125" s="11">
         <v>10240000</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J125" s="4">
         <v>124</v>
@@ -5843,22 +5876,22 @@
         <v>35</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E126" s="11">
         <v>10240000</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J126" s="4">
         <v>125</v>
@@ -5875,22 +5908,22 @@
         <v>37</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E127" s="11">
         <v>10240000</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J127" s="4">
         <v>126</v>
@@ -5907,22 +5940,22 @@
         <v>33</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E128" s="11">
         <v>10240000</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="G128" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="J128" s="4">
         <v>127</v>
@@ -5939,22 +5972,22 @@
         <v>45</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E129" s="11">
         <v>10240000</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J129" s="4">
         <v>128</v>
@@ -5971,22 +6004,22 @@
         <v>46</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E130" s="11">
         <v>10240000</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J130" s="4">
         <v>129</v>
@@ -6003,19 +6036,19 @@
         <v>69</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E131" s="11">
         <v>10240000</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="I131" s="15" t="s">
         <v>14</v>
@@ -6055,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">INDIRECT("D"&amp;2)</f>
@@ -6103,7 +6136,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ref="G6:G8" ca="1" si="1">INDIRECT("D"&amp;3)</f>
@@ -6115,7 +6148,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6311,7 +6344,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
@@ -6319,7 +6352,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
@@ -6327,7 +6360,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
@@ -6335,7 +6368,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
@@ -6343,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
@@ -6351,7 +6384,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
@@ -6359,7 +6392,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
@@ -6367,7 +6400,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
@@ -6375,7 +6408,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
@@ -6383,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.15">
@@ -6407,7 +6440,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.15">
@@ -6415,7 +6448,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.15">
@@ -6423,7 +6456,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.15">
@@ -6431,7 +6464,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.15">
@@ -6439,7 +6472,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.15">
@@ -6447,7 +6480,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.15">
@@ -6455,7 +6488,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
@@ -6463,7 +6496,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
@@ -6471,7 +6504,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
@@ -6479,7 +6512,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
@@ -6503,7 +6536,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
@@ -6511,7 +6544,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.15">
@@ -6519,7 +6552,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.15">
@@ -6527,7 +6560,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.15">
@@ -6535,7 +6568,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.15">
@@ -6543,7 +6576,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.15">
@@ -6551,7 +6584,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.15">
@@ -6559,7 +6592,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.15">
@@ -6567,7 +6600,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.15">
@@ -6575,7 +6608,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.15">
@@ -6607,7 +6640,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.15">
@@ -6615,7 +6648,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.15">
@@ -6623,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.15">
@@ -6631,7 +6664,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.15">
@@ -6639,7 +6672,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.15">
@@ -6647,7 +6680,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.15">
@@ -6655,7 +6688,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
@@ -6663,7 +6696,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
@@ -6671,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
@@ -6679,7 +6712,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
@@ -6687,7 +6720,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
@@ -6695,7 +6728,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.15">
@@ -6711,7 +6744,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.15">
@@ -6719,7 +6752,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.15">
@@ -6727,7 +6760,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.15">
@@ -6735,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.15">
@@ -6743,7 +6776,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.15">
@@ -6751,7 +6784,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.15">
@@ -6759,7 +6792,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.15">
@@ -6767,7 +6800,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.15">
@@ -6775,7 +6808,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.15">
@@ -6783,7 +6816,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.15">
@@ -6791,7 +6824,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.15">
@@ -6799,7 +6832,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.15">
@@ -6815,7 +6848,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.15">
@@ -6823,7 +6856,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.15">
@@ -6831,7 +6864,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.15">
@@ -6839,7 +6872,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.15">
@@ -6847,7 +6880,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
@@ -6855,7 +6888,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.15">
@@ -6863,7 +6896,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.15">
@@ -6871,7 +6904,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.15">
@@ -6879,7 +6912,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.15">
@@ -6887,7 +6920,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.15">
@@ -6895,7 +6928,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.15">
@@ -6903,7 +6936,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.15">
@@ -6911,7 +6944,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.15">
@@ -6919,7 +6952,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.15">
@@ -6927,7 +6960,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.15">
@@ -6935,7 +6968,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.15">
@@ -6943,7 +6976,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.15">
@@ -6951,7 +6984,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.15">
@@ -6959,7 +6992,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.15">
@@ -6967,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
@@ -6975,7 +7008,7 @@
         <v>112</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.15">
@@ -6983,7 +7016,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.15">
@@ -6991,7 +7024,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.15">
@@ -6999,7 +7032,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.15">
@@ -7007,7 +7040,7 @@
         <v>116</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.15">
@@ -7015,7 +7048,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.15">
@@ -7023,7 +7056,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
@@ -7031,7 +7064,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
@@ -7039,7 +7072,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
@@ -7047,7 +7080,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
@@ -7055,7 +7088,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
@@ -7063,7 +7096,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
@@ -7071,7 +7104,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
@@ -7079,7 +7112,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
@@ -7087,7 +7120,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
@@ -7095,7 +7128,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.15">
@@ -7103,7 +7136,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.15">
@@ -7111,7 +7144,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.15">
@@ -7119,7 +7152,7 @@
         <v>130</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
